--- a/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D539630F-F057-4F19-B9D5-C36EA67BF183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DFD86D-65B4-4317-AAB7-8DB53754B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6829F4FE-888A-4605-B405-ABBDB2DAD0B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D80247C-5B99-4E18-A34D-40A7A7137C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="274">
   <si>
     <t>Población según el por que no pagarían para reducir el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,02%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro motivo</t>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,41%</t>
+    <t>55,33%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>43,89%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>36,99%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
@@ -98,25 +98,25 @@
     <t>29,29%</t>
   </si>
   <si>
-    <t>74,3%</t>
+    <t>74,97%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
@@ -125,25 +125,25 @@
     <t>30,65%</t>
   </si>
   <si>
-    <t>75,25%</t>
+    <t>77,44%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
@@ -152,7 +152,7 @@
     <t>27,95%</t>
   </si>
   <si>
-    <t>73,88%</t>
+    <t>71,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -164,7 +164,7 @@
     <t>10,3%</t>
   </si>
   <si>
-    <t>35,65%</t>
+    <t>31,7%</t>
   </si>
   <si>
     <t>No me siento responsable del ruido</t>
@@ -176,673 +176,676 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>38,87%</t>
+    <t>44,53%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>12,41%</t>
@@ -851,7 +854,7 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>15,03%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1266,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8694BA-D5E8-44A0-86AB-A21037675C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4328469A-F50F-446E-AA35-D5E1C1DF2588}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2174,13 +2177,13 @@
         <v>9445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2189,13 +2192,13 @@
         <v>32487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2213,13 @@
         <v>10041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2225,13 +2228,13 @@
         <v>7680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -2240,13 +2243,13 @@
         <v>17720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2305,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2317,13 @@
         <v>3872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2329,13 +2332,13 @@
         <v>5082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2344,13 +2347,13 @@
         <v>8954</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2368,13 @@
         <v>21466</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2380,13 +2383,13 @@
         <v>21561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -2395,13 +2398,13 @@
         <v>43027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2419,13 @@
         <v>25817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2431,13 +2434,13 @@
         <v>18941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -2446,13 +2449,13 @@
         <v>44758</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2470,13 @@
         <v>5841</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2482,13 +2485,13 @@
         <v>6219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2497,13 +2500,13 @@
         <v>12060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2521,13 @@
         <v>1000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2533,13 +2536,13 @@
         <v>6082</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2548,13 +2551,13 @@
         <v>7082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2625,13 @@
         <v>5679</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -2637,13 +2640,13 @@
         <v>4175</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -2652,13 +2655,13 @@
         <v>9854</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2676,13 @@
         <v>16447</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -2688,13 +2691,13 @@
         <v>15037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -2703,10 +2706,10 @@
         <v>31484</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>201</v>
@@ -2859,10 +2862,10 @@
         <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2933,13 @@
         <v>20536</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -2945,13 +2948,13 @@
         <v>18605</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -2960,13 +2963,13 @@
         <v>39141</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2984,13 @@
         <v>63788</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -2996,7 +2999,7 @@
         <v>59425</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>241</v>
@@ -3098,13 +3101,13 @@
         <v>32974</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>101</v>
@@ -3113,13 +3116,13 @@
         <v>78083</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3137,13 @@
         <v>29014</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>54</v>
@@ -3149,13 +3152,13 @@
         <v>34965</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -3164,13 +3167,13 @@
         <v>63979</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3229,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
